--- a/chooseBlockC.xlsx
+++ b/chooseBlockC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sag22id\Documents\Projects\GCA\gaze_avoidance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60DD027-9F02-4113-9E83-F133F416E878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4024FA38-C08F-420E-B690-36FBE317CC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21831" yWindow="3806" windowWidth="14382" windowHeight="8657" xr2:uid="{EE2D1E65-ECCA-4926-8829-64F5B2CF654A}"/>
+    <workbookView xWindow="5606" yWindow="2949" windowWidth="14383" windowHeight="9814" xr2:uid="{EE2D1E65-ECCA-4926-8829-64F5B2CF654A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
-  <si>
-    <t>cs_plus</t>
-  </si>
-  <si>
-    <t>cs_minus</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>stimuli/social/016_y_m_n_b.jpg</t>
   </si>
@@ -60,6 +54,24 @@
   </si>
   <si>
     <t>positions.xlsx</t>
+  </si>
+  <si>
+    <t>cs_plus_s</t>
+  </si>
+  <si>
+    <t>cs_minus_s</t>
+  </si>
+  <si>
+    <t>cs_plus_ns</t>
+  </si>
+  <si>
+    <t>cs_minus_ns</t>
+  </si>
+  <si>
+    <t>stimFile</t>
+  </si>
+  <si>
+    <t>stimuli.xlsx</t>
   </si>
 </sst>
 </file>
@@ -411,50 +423,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D442166-CB98-4944-BF44-DA0360414B46}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16.53515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.3828125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.23046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.53515625" customWidth="1"/>
+    <col min="3" max="3" width="27.3828125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.23046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/chooseBlockC.xlsx
+++ b/chooseBlockC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sag22id\Documents\Projects\GCA\gaze_avoidance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4024FA38-C08F-420E-B690-36FBE317CC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D31A9C-99C1-4566-AE33-952EC8116F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5606" yWindow="2949" windowWidth="14383" windowHeight="9814" xr2:uid="{EE2D1E65-ECCA-4926-8829-64F5B2CF654A}"/>
+    <workbookView xWindow="16457" yWindow="0" windowWidth="16457" windowHeight="8957" xr2:uid="{EE2D1E65-ECCA-4926-8829-64F5B2CF654A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -38,18 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>stimuli/social/016_y_m_n_b.jpg</t>
-  </si>
-  <si>
-    <t>stimuli/social/031_y_m_n_a.jpg</t>
-  </si>
-  <si>
-    <t>stimuli/non-social/016_y_m_n_b_scrambled.jpg</t>
-  </si>
-  <si>
-    <t>stimuli/non-social/031_y_m_n_a_scrambled.jpg</t>
-  </si>
-  <si>
     <t>posFile</t>
   </si>
   <si>
@@ -72,6 +60,18 @@
   </si>
   <si>
     <t>stimuli.xlsx</t>
+  </si>
+  <si>
+    <t>stimuli/Social1.png</t>
+  </si>
+  <si>
+    <t>stimuli/Social2.png</t>
+  </si>
+  <si>
+    <t>stimuli/Nonsocial2.png</t>
+  </si>
+  <si>
+    <t>stimuli/Nonsocial1.png</t>
   </si>
 </sst>
 </file>
@@ -426,55 +426,55 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16.53515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.53515625" customWidth="1"/>
-    <col min="3" max="3" width="27.3828125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.23046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.53515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="19.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
